--- a/output/historyAssesment_data.xlsx
+++ b/output/historyAssesment_data.xlsx
@@ -12,7 +12,10 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="79">
+  <si>
+    <t xml:space="preserve"/>
+  </si>
   <si>
     <t xml:space="preserve">category</t>
   </si>
@@ -41,6 +44,9 @@
     <t xml:space="preserve">subpopulation</t>
   </si>
   <si>
+    <t xml:space="preserve">1</t>
+  </si>
+  <si>
     <t xml:space="preserve">Least Concern</t>
   </si>
   <si>
@@ -56,6 +62,9 @@
     <t xml:space="preserve">LC</t>
   </si>
   <si>
+    <t xml:space="preserve">2</t>
+  </si>
+  <si>
     <t xml:space="preserve">Lower Risk/least concern</t>
   </si>
   <si>
@@ -65,6 +74,9 @@
     <t xml:space="preserve">LR/lc</t>
   </si>
   <si>
+    <t xml:space="preserve">3</t>
+  </si>
+  <si>
     <t xml:space="preserve">Threatened</t>
   </si>
   <si>
@@ -74,9 +86,15 @@
     <t xml:space="preserve">T</t>
   </si>
   <si>
+    <t xml:space="preserve">4</t>
+  </si>
+  <si>
     <t xml:space="preserve">1986</t>
   </si>
   <si>
+    <t xml:space="preserve">5</t>
+  </si>
+  <si>
     <t xml:space="preserve">Vulnerable</t>
   </si>
   <si>
@@ -92,21 +110,36 @@
     <t xml:space="preserve">VU</t>
   </si>
   <si>
+    <t xml:space="preserve">6</t>
+  </si>
+  <si>
     <t xml:space="preserve">2021</t>
   </si>
   <si>
+    <t xml:space="preserve">7</t>
+  </si>
+  <si>
     <t xml:space="preserve">2012</t>
   </si>
   <si>
     <t xml:space="preserve">2009</t>
   </si>
   <si>
+    <t xml:space="preserve">8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9</t>
+  </si>
+  <si>
     <t xml:space="preserve">1994</t>
   </si>
   <si>
     <t xml:space="preserve">V</t>
   </si>
   <si>
+    <t xml:space="preserve">10</t>
+  </si>
+  <si>
     <t xml:space="preserve">Endangered</t>
   </si>
   <si>
@@ -116,9 +149,21 @@
     <t xml:space="preserve">E</t>
   </si>
   <si>
+    <t xml:space="preserve">11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13</t>
+  </si>
+  <si>
     <t xml:space="preserve">1982</t>
   </si>
   <si>
+    <t xml:space="preserve">14</t>
+  </si>
+  <si>
     <t xml:space="preserve">Critically Endangered</t>
   </si>
   <si>
@@ -134,6 +179,27 @@
     <t xml:space="preserve">CR</t>
   </si>
   <si>
+    <t xml:space="preserve">15</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21</t>
+  </si>
+  <si>
     <t xml:space="preserve">Lower Risk/conservation dependent</t>
   </si>
   <si>
@@ -146,13 +212,43 @@
     <t xml:space="preserve">LR/cd</t>
   </si>
   <si>
+    <t xml:space="preserve">22</t>
+  </si>
+  <si>
     <t xml:space="preserve">EN</t>
   </si>
   <si>
+    <t xml:space="preserve">23</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28</t>
+  </si>
+  <si>
     <t xml:space="preserve">Paleosuchus palpebrosus</t>
   </si>
   <si>
+    <t xml:space="preserve">29</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30</t>
+  </si>
+  <si>
     <t xml:space="preserve">Paleosuchus trigonatus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31</t>
   </si>
 </sst>
 </file>
@@ -512,657 +608,753 @@
       <c r="I1" t="s">
         <v>8</v>
       </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F2"/>
+        <v>14</v>
+      </c>
+      <c r="F2" t="s">
+        <v>15</v>
+      </c>
       <c r="G2"/>
       <c r="H2"/>
       <c r="I2"/>
+      <c r="J2"/>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B3" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="C3" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D3" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="E3" t="s">
-        <v>16</v>
-      </c>
-      <c r="F3"/>
+        <v>18</v>
+      </c>
+      <c r="F3" t="s">
+        <v>19</v>
+      </c>
       <c r="G3"/>
       <c r="H3"/>
       <c r="I3"/>
+      <c r="J3"/>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="C4" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="D4" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="E4" t="s">
-        <v>19</v>
-      </c>
-      <c r="F4"/>
+        <v>22</v>
+      </c>
+      <c r="F4" t="s">
+        <v>23</v>
+      </c>
       <c r="G4"/>
       <c r="H4"/>
       <c r="I4"/>
+      <c r="J4"/>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="B5" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="C5" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="D5" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="E5" t="s">
-        <v>19</v>
-      </c>
-      <c r="F5"/>
+        <v>25</v>
+      </c>
+      <c r="F5" t="s">
+        <v>23</v>
+      </c>
       <c r="G5"/>
       <c r="H5"/>
       <c r="I5"/>
+      <c r="J5"/>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="B6" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="C6" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="D6" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="E6" t="s">
-        <v>25</v>
-      </c>
-      <c r="F6"/>
+        <v>30</v>
+      </c>
+      <c r="F6" t="s">
+        <v>31</v>
+      </c>
       <c r="G6"/>
       <c r="H6"/>
       <c r="I6"/>
+      <c r="J6"/>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="B7" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="C7" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="D7" t="s">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="E7" t="s">
-        <v>25</v>
-      </c>
-      <c r="F7"/>
+        <v>30</v>
+      </c>
+      <c r="F7" t="s">
+        <v>31</v>
+      </c>
       <c r="G7"/>
       <c r="H7"/>
       <c r="I7"/>
+      <c r="J7"/>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="B8" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="C8" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D8" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="E8" t="s">
-        <v>25</v>
-      </c>
-      <c r="F8"/>
+        <v>36</v>
+      </c>
+      <c r="F8" t="s">
+        <v>31</v>
+      </c>
       <c r="G8"/>
       <c r="H8"/>
       <c r="I8"/>
+      <c r="J8"/>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>21</v>
+        <v>37</v>
       </c>
       <c r="B9" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="C9" t="s">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="D9" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="E9" t="s">
-        <v>25</v>
-      </c>
-      <c r="F9"/>
+        <v>18</v>
+      </c>
+      <c r="F9" t="s">
+        <v>31</v>
+      </c>
       <c r="G9"/>
       <c r="H9"/>
       <c r="I9"/>
+      <c r="J9"/>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>21</v>
+        <v>38</v>
       </c>
       <c r="B10" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="C10" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D10" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="E10" t="s">
-        <v>30</v>
-      </c>
-      <c r="F10"/>
+        <v>39</v>
+      </c>
+      <c r="F10" t="s">
+        <v>40</v>
+      </c>
       <c r="G10"/>
       <c r="H10"/>
       <c r="I10"/>
+      <c r="J10"/>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="B11" t="s">
-        <v>22</v>
+        <v>42</v>
       </c>
       <c r="C11" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="D11" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="E11" t="s">
-        <v>33</v>
-      </c>
-      <c r="F11"/>
+        <v>43</v>
+      </c>
+      <c r="F11" t="s">
+        <v>44</v>
+      </c>
       <c r="G11"/>
       <c r="H11"/>
       <c r="I11"/>
+      <c r="J11"/>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>31</v>
+        <v>45</v>
       </c>
       <c r="B12" t="s">
+        <v>42</v>
+      </c>
+      <c r="C12" t="s">
+        <v>28</v>
+      </c>
+      <c r="D12" t="s">
         <v>22</v>
       </c>
-      <c r="C12" t="s">
-        <v>18</v>
-      </c>
-      <c r="D12" t="s">
-        <v>18</v>
-      </c>
       <c r="E12" t="s">
-        <v>33</v>
-      </c>
-      <c r="F12"/>
+        <v>22</v>
+      </c>
+      <c r="F12" t="s">
+        <v>44</v>
+      </c>
       <c r="G12"/>
       <c r="H12"/>
       <c r="I12"/>
+      <c r="J12"/>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>31</v>
+        <v>46</v>
       </c>
       <c r="B13" t="s">
-        <v>22</v>
+        <v>42</v>
       </c>
       <c r="C13" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="D13" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="E13" t="s">
-        <v>33</v>
-      </c>
-      <c r="F13"/>
+        <v>25</v>
+      </c>
+      <c r="F13" t="s">
+        <v>44</v>
+      </c>
       <c r="G13"/>
       <c r="H13"/>
       <c r="I13"/>
+      <c r="J13"/>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>31</v>
+        <v>47</v>
       </c>
       <c r="B14" t="s">
-        <v>22</v>
+        <v>42</v>
       </c>
       <c r="C14" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="D14" t="s">
-        <v>34</v>
+        <v>48</v>
       </c>
       <c r="E14" t="s">
-        <v>33</v>
-      </c>
-      <c r="F14"/>
+        <v>48</v>
+      </c>
+      <c r="F14" t="s">
+        <v>44</v>
+      </c>
       <c r="G14"/>
       <c r="H14"/>
       <c r="I14"/>
+      <c r="J14"/>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>35</v>
+        <v>49</v>
       </c>
       <c r="B15" t="s">
-        <v>36</v>
+        <v>50</v>
       </c>
       <c r="C15" t="s">
-        <v>37</v>
+        <v>51</v>
       </c>
       <c r="D15" t="s">
-        <v>38</v>
+        <v>52</v>
       </c>
       <c r="E15" t="s">
-        <v>39</v>
-      </c>
-      <c r="F15"/>
+        <v>53</v>
+      </c>
+      <c r="F15" t="s">
+        <v>54</v>
+      </c>
       <c r="G15"/>
       <c r="H15"/>
       <c r="I15"/>
+      <c r="J15"/>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>35</v>
+        <v>55</v>
       </c>
       <c r="B16" t="s">
-        <v>36</v>
+        <v>50</v>
       </c>
       <c r="C16" t="s">
-        <v>15</v>
+        <v>51</v>
       </c>
       <c r="D16" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="E16" t="s">
-        <v>39</v>
-      </c>
-      <c r="F16"/>
+        <v>18</v>
+      </c>
+      <c r="F16" t="s">
+        <v>54</v>
+      </c>
       <c r="G16"/>
       <c r="H16"/>
       <c r="I16"/>
+      <c r="J16"/>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>31</v>
+        <v>56</v>
       </c>
       <c r="B17" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="C17" t="s">
-        <v>29</v>
+        <v>51</v>
       </c>
       <c r="D17" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="E17" t="s">
-        <v>33</v>
-      </c>
-      <c r="F17"/>
+        <v>39</v>
+      </c>
+      <c r="F17" t="s">
+        <v>44</v>
+      </c>
       <c r="G17"/>
       <c r="H17"/>
       <c r="I17"/>
+      <c r="J17"/>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>31</v>
+        <v>57</v>
       </c>
       <c r="B18" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="C18" t="s">
-        <v>32</v>
+        <v>51</v>
       </c>
       <c r="D18" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="E18" t="s">
-        <v>33</v>
-      </c>
-      <c r="F18"/>
+        <v>43</v>
+      </c>
+      <c r="F18" t="s">
+        <v>44</v>
+      </c>
       <c r="G18"/>
       <c r="H18"/>
       <c r="I18"/>
+      <c r="J18"/>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>31</v>
+        <v>58</v>
       </c>
       <c r="B19" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="C19" t="s">
-        <v>18</v>
+        <v>51</v>
       </c>
       <c r="D19" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="E19" t="s">
-        <v>33</v>
-      </c>
-      <c r="F19"/>
+        <v>22</v>
+      </c>
+      <c r="F19" t="s">
+        <v>44</v>
+      </c>
       <c r="G19"/>
       <c r="H19"/>
       <c r="I19"/>
+      <c r="J19"/>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>31</v>
+        <v>59</v>
       </c>
       <c r="B20" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="C20" t="s">
-        <v>20</v>
+        <v>51</v>
       </c>
       <c r="D20" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="E20" t="s">
-        <v>33</v>
-      </c>
-      <c r="F20"/>
+        <v>25</v>
+      </c>
+      <c r="F20" t="s">
+        <v>44</v>
+      </c>
       <c r="G20"/>
       <c r="H20"/>
       <c r="I20"/>
+      <c r="J20"/>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>31</v>
+        <v>60</v>
       </c>
       <c r="B21" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="C21" t="s">
-        <v>34</v>
+        <v>51</v>
       </c>
       <c r="D21" t="s">
-        <v>34</v>
+        <v>48</v>
       </c>
       <c r="E21" t="s">
-        <v>33</v>
-      </c>
-      <c r="F21"/>
+        <v>48</v>
+      </c>
+      <c r="F21" t="s">
+        <v>44</v>
+      </c>
       <c r="G21"/>
       <c r="H21"/>
       <c r="I21"/>
+      <c r="J21"/>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>40</v>
+        <v>61</v>
       </c>
       <c r="B22" t="s">
-        <v>41</v>
+        <v>62</v>
       </c>
       <c r="C22" t="s">
-        <v>42</v>
+        <v>63</v>
       </c>
       <c r="D22" t="s">
-        <v>42</v>
+        <v>64</v>
       </c>
       <c r="E22" t="s">
-        <v>43</v>
-      </c>
-      <c r="F22"/>
+        <v>64</v>
+      </c>
+      <c r="F22" t="s">
+        <v>65</v>
+      </c>
       <c r="G22"/>
       <c r="H22"/>
       <c r="I22"/>
+      <c r="J22"/>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>31</v>
+        <v>66</v>
       </c>
       <c r="B23" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C23" t="s">
-        <v>15</v>
+        <v>63</v>
       </c>
       <c r="D23" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="E23" t="s">
-        <v>44</v>
-      </c>
-      <c r="F23"/>
+        <v>18</v>
+      </c>
+      <c r="F23" t="s">
+        <v>67</v>
+      </c>
       <c r="G23"/>
       <c r="H23"/>
       <c r="I23"/>
+      <c r="J23"/>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>21</v>
+        <v>68</v>
       </c>
       <c r="B24" t="s">
-        <v>41</v>
+        <v>27</v>
       </c>
       <c r="C24" t="s">
-        <v>29</v>
+        <v>63</v>
       </c>
       <c r="D24" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="E24" t="s">
-        <v>30</v>
-      </c>
-      <c r="F24"/>
+        <v>39</v>
+      </c>
+      <c r="F24" t="s">
+        <v>40</v>
+      </c>
       <c r="G24"/>
       <c r="H24"/>
       <c r="I24"/>
+      <c r="J24"/>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>31</v>
+        <v>69</v>
       </c>
       <c r="B25" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C25" t="s">
-        <v>32</v>
+        <v>63</v>
       </c>
       <c r="D25" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="E25" t="s">
-        <v>33</v>
-      </c>
-      <c r="F25"/>
+        <v>43</v>
+      </c>
+      <c r="F25" t="s">
+        <v>44</v>
+      </c>
       <c r="G25"/>
       <c r="H25"/>
       <c r="I25"/>
+      <c r="J25"/>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>31</v>
+        <v>70</v>
       </c>
       <c r="B26" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C26" t="s">
-        <v>18</v>
+        <v>63</v>
       </c>
       <c r="D26" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="E26" t="s">
-        <v>33</v>
-      </c>
-      <c r="F26"/>
+        <v>22</v>
+      </c>
+      <c r="F26" t="s">
+        <v>44</v>
+      </c>
       <c r="G26"/>
       <c r="H26"/>
       <c r="I26"/>
+      <c r="J26"/>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>31</v>
+        <v>71</v>
       </c>
       <c r="B27" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C27" t="s">
-        <v>20</v>
+        <v>63</v>
       </c>
       <c r="D27" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="E27" t="s">
-        <v>33</v>
-      </c>
-      <c r="F27"/>
+        <v>25</v>
+      </c>
+      <c r="F27" t="s">
+        <v>44</v>
+      </c>
       <c r="G27"/>
       <c r="H27"/>
       <c r="I27"/>
+      <c r="J27"/>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>31</v>
+        <v>72</v>
       </c>
       <c r="B28" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C28" t="s">
-        <v>34</v>
+        <v>63</v>
       </c>
       <c r="D28" t="s">
-        <v>34</v>
+        <v>48</v>
       </c>
       <c r="E28" t="s">
-        <v>33</v>
-      </c>
-      <c r="F28"/>
+        <v>48</v>
+      </c>
+      <c r="F28" t="s">
+        <v>44</v>
+      </c>
       <c r="G28"/>
       <c r="H28"/>
       <c r="I28"/>
+      <c r="J28"/>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>9</v>
+        <v>73</v>
       </c>
       <c r="B29" t="s">
-        <v>45</v>
+        <v>11</v>
       </c>
       <c r="C29" t="s">
-        <v>11</v>
+        <v>74</v>
       </c>
       <c r="D29" t="s">
-        <v>37</v>
+        <v>13</v>
       </c>
       <c r="E29" t="s">
-        <v>13</v>
-      </c>
-      <c r="F29"/>
+        <v>52</v>
+      </c>
+      <c r="F29" t="s">
+        <v>15</v>
+      </c>
       <c r="G29"/>
       <c r="H29"/>
       <c r="I29"/>
+      <c r="J29"/>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>14</v>
+        <v>75</v>
       </c>
       <c r="B30" t="s">
-        <v>45</v>
+        <v>17</v>
       </c>
       <c r="C30" t="s">
-        <v>15</v>
+        <v>74</v>
       </c>
       <c r="D30" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="E30" t="s">
-        <v>16</v>
-      </c>
-      <c r="F30"/>
+        <v>18</v>
+      </c>
+      <c r="F30" t="s">
+        <v>19</v>
+      </c>
       <c r="G30"/>
       <c r="H30"/>
       <c r="I30"/>
+      <c r="J30"/>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>9</v>
+        <v>76</v>
       </c>
       <c r="B31" t="s">
-        <v>46</v>
+        <v>11</v>
       </c>
       <c r="C31" t="s">
-        <v>11</v>
+        <v>77</v>
       </c>
       <c r="D31" t="s">
-        <v>37</v>
+        <v>13</v>
       </c>
       <c r="E31" t="s">
-        <v>13</v>
-      </c>
-      <c r="F31"/>
+        <v>52</v>
+      </c>
+      <c r="F31" t="s">
+        <v>15</v>
+      </c>
       <c r="G31"/>
       <c r="H31"/>
       <c r="I31"/>
+      <c r="J31"/>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>14</v>
+        <v>78</v>
       </c>
       <c r="B32" t="s">
-        <v>46</v>
+        <v>17</v>
       </c>
       <c r="C32" t="s">
-        <v>15</v>
+        <v>77</v>
       </c>
       <c r="D32" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="E32" t="s">
-        <v>16</v>
-      </c>
-      <c r="F32"/>
+        <v>18</v>
+      </c>
+      <c r="F32" t="s">
+        <v>19</v>
+      </c>
       <c r="G32"/>
       <c r="H32"/>
       <c r="I32"/>
+      <c r="J32"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
